--- a/2 periodo/Sistema Logico/Lista 03 - Resolução.xlsx
+++ b/2 periodo/Sistema Logico/Lista 03 - Resolução.xlsx
@@ -104,6 +104,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,6 +192,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320760</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Figura 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91080" y="403920"/>
+          <a:ext cx="4627440" cy="2991240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -198,11 +241,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.76"/>
@@ -719,11 +762,11 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.87"/>
   </cols>
@@ -1188,11 +1231,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
   </cols>
@@ -1232,6 +1275,9 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,14 +1438,14 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.41"/>
   </cols>
   <sheetData>
@@ -1661,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,11 +1960,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.79"/>
   </cols>
@@ -1936,5 +1982,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>